--- a/Tools/本地数据表/DTJob.xlsx
+++ b/Tools/本地数据表/DTJob.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -83,119 +83,83 @@
     <t>系数--抗性</t>
   </si>
   <si>
-    <t>headpic_role_fashi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避 身法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JuChui</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>headpic_role_juchui</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>BaseRoleId</t>
   </si>
   <si>
     <t>HeadPic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JobPic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JobDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联角色Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编号</t>
   </si>
   <si>
     <t>头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>职业半身像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>职业描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>天山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TianShan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>headpic_role_cike</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击 刺客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZhanShi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>headpic_role_zhanshi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobName.TianShan</t>
+  </si>
+  <si>
+    <t>UIHead/TianShan</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>峨眉</t>
+  </si>
+  <si>
+    <t>JobName.ErMei</t>
+  </si>
+  <si>
+    <t>UIHead/ErMei</t>
   </si>
   <si>
     <t>攻击力高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FaShi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨锤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林</t>
+  </si>
+  <si>
+    <t>JobName.ShaoLin</t>
+  </si>
+  <si>
+    <t>UIHead/ShaoLin</t>
+  </si>
+  <si>
+    <t>血多</t>
+  </si>
+  <si>
+    <t>丐帮</t>
+  </si>
+  <si>
+    <t>JobName.GaiBang</t>
+  </si>
+  <si>
+    <t>UIHead/GaiBang</t>
+  </si>
+  <si>
+    <t>身法好</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,11 +173,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -596,7 +555,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="A1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,16 +585,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -667,16 +626,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -708,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -743,19 +702,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
-        <v>100002</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1">
         <v>100</v>
@@ -781,19 +740,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1">
         <v>100</v>
@@ -819,19 +778,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1">
         <v>100</v>
@@ -857,19 +816,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1">
         <v>120</v>

--- a/Tools/本地数据表/DTJob.xlsx
+++ b/Tools/本地数据表/DTJob.xlsx
@@ -209,74 +209,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,10 +225,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="979797"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="202020"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,7 +487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="A1:M7"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
